--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637655.6163957969</v>
+        <v>635174.6965703383</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>151.5336052341004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104937</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>1.600494864208464</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>91.34198591836963</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>90.12097307876934</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>86.66051676164446</v>
       </c>
       <c r="F14" t="n">
-        <v>61.67577209757044</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104937</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>107.0733734269364</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>107.6584765081309</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>312.8128825920933</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>77.75832703546187</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290878</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7201898124933</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085012</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121757</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860173</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>275.027409325835</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134331482</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.785619487006</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290878</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7201898124933</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085012</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721219</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860173</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365929215</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>240.6420543130714</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290878</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124933</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085012</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721219</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860173</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206861</v>
+        <v>178.2734363206852</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2801,7 +2801,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231183</v>
       </c>
       <c r="G29" t="n">
         <v>363.9465890348609</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958302</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>94.46999087276784</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285729</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.20693826439391</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3541982182261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>69.56210087052281</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439435</v>
       </c>
       <c r="S43" t="n">
         <v>92.08430510333687</v>
@@ -3952,16 +3952,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,7 +4028,7 @@
         <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>90.95618068285808</v>
       </c>
       <c r="F46" t="n">
         <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>119.3005938533749</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>47.07029468621576</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2037.495682435602</v>
+        <v>1500.637597194506</v>
       </c>
       <c r="C11" t="n">
-        <v>1695.725232754914</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D11" t="n">
-        <v>1364.651601407888</v>
+        <v>827.7935161667915</v>
       </c>
       <c r="E11" t="n">
-        <v>1006.055416069367</v>
+        <v>469.1973308282709</v>
       </c>
       <c r="F11" t="n">
-        <v>622.2615785394834</v>
+        <v>469.1973308282709</v>
       </c>
       <c r="G11" t="n">
-        <v>234.3811956442036</v>
+        <v>81.31694793299106</v>
       </c>
       <c r="H11" t="n">
-        <v>81.316947932991</v>
+        <v>81.31694793299106</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039935</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956089</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2759.850719956089</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2759.850719956089</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>2396.903455240001</v>
+        <v>1860.045369998904</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609369</v>
+        <v>418.3126375609361</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3126375609369</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="D13" t="n">
-        <v>418.3126375609369</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0480053201592</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201592</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546019</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.167030653553</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152593</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314529</v>
+        <v>572.769035131452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1502.254258673504</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.483808992816</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.483808992816</v>
+        <v>808.233362610389</v>
       </c>
       <c r="E14" t="n">
-        <v>801.8876236542955</v>
+        <v>720.6974870935765</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597798</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299098</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
         <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489648</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479257</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
         <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.662031477902</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>766.3695470152589</v>
+        <v>418.3126375609361</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6254313470757</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D16" t="n">
-        <v>624.6254313470757</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802768</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420901</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003738</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705053</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5461,25 +5461,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
         <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535525</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152589</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3695470152589</v>
+        <v>572.7690351314521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.696340267699</v>
+        <v>1830.862197398327</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.375523535084</v>
+        <v>1536.541380665713</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1252.917382266759</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>941.7708298763118</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>605.4266252945013</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3211.413088661778</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3032.524312143411</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2776.103125007638</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2497.976169945321</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2199.152111892038</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1883.654480124023</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243104</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084841</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352226</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>941.0313189532728</v>
+        <v>940.9592424104342</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8126900199869</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>293.4684854381763</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.382918824781</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.255963762464</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.431905709181</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.934273941166</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5859,16 +5859,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.51949026613</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5993,46 +5993,46 @@
         <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1383.526753844414</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516337</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061124</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775272</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574174</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528787</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634001</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342413</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119736</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259233</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935703</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999699</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058813</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
@@ -6494,16 +6494,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6543,25 +6543,25 @@
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6701,34 +6701,34 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>792.178082463269</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711678</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383602</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442384</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321721</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6920,46 +6920,46 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
         <v>3313.986587710109</v>
@@ -6968,7 +6968,7 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127574</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586939</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>575.2179889538779</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>525.9763299453282</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388405</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691538</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296686</v>
@@ -7251,10 +7251,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158134</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>796.9451341124659</v>
+        <v>444.8926667912269</v>
       </c>
       <c r="C40" t="n">
-        <v>726.6803857584024</v>
+        <v>374.6279184371634</v>
       </c>
       <c r="D40" t="n">
-        <v>576.5637463460666</v>
+        <v>323.1827135986711</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1884.661277114357</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515027</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.551646658396</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357883</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.10716072584</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1131.361425262723</v>
+        <v>976.6518270891708</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.043308938549</v>
+        <v>748.6622761911534</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.9221643688621</v>
+        <v>527.8696970476233</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515026</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058688</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891709</v>
+        <v>934.0185561150356</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911535</v>
+        <v>804.7004397908618</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.8696970476234</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7682,16 +7682,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7728,7 +7728,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158134</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.0765132702857</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C46" t="n">
-        <v>482.1403303423788</v>
+        <v>473.2993530110073</v>
       </c>
       <c r="D46" t="n">
-        <v>332.023690930043</v>
+        <v>421.854148172515</v>
       </c>
       <c r="E46" t="n">
-        <v>282.7820319214934</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F46" t="n">
-        <v>234.5635189974265</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.251593515703</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.23853988366</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205424</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>856.1746880963685</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0535435266819</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430633</v>
+        <v>157.2353108430629</v>
       </c>
       <c r="K8" t="n">
-        <v>184.403943372901</v>
+        <v>184.4039433729005</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389607</v>
+        <v>191.4948909389601</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333071</v>
+        <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830244</v>
+        <v>179.3553748830237</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383994</v>
+        <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586588</v>
+        <v>190.8908035586582</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266126</v>
+        <v>192.0103836266122</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372535</v>
+        <v>113.6031223372531</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672276</v>
+        <v>105.9629718672271</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253596</v>
+        <v>104.101398125359</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677683</v>
+        <v>92.30246558677626</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359738</v>
+        <v>106.8829608359733</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798326</v>
+        <v>105.3113487798322</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564659</v>
+        <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140779</v>
+        <v>108.4284123140776</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>339.8144253784351</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784344</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>287.0017854473926</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>209.1187564935608</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>334.4868774152288</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544146</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>190.2350110279879</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.51711806374306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>116.1540125660936</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>357.7172972047187</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>28.17183014107305</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>28.37992835703549</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>268.3497067234909</v>
       </c>
       <c r="F14" t="n">
-        <v>318.2801270570145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.25330108456505</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.85533955131178</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271165</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.21355985564114</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.2643598984392</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.052118313403</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07135577740982171</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.613287612504791e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.456612608308205e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886426.9924561923</v>
+        <v>886426.9924561922</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886426.9924561922</v>
+        <v>886426.9924561919</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>964415.9768660658</v>
+        <v>964415.9768660659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>964415.9768660659</v>
+        <v>964415.976866066</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>996229.115207362</v>
+        <v>996229.1152073621</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.986294371</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.986294371</v>
+        <v>450601.9862943712</v>
       </c>
       <c r="D2" t="n">
-        <v>450614.2683932705</v>
+        <v>450614.2683932704</v>
       </c>
       <c r="E2" t="n">
         <v>401247.0004977359</v>
@@ -26326,31 +26326,31 @@
         <v>401247.0004977358</v>
       </c>
       <c r="G2" t="n">
-        <v>436991.9516855949</v>
+        <v>436991.9516855948</v>
       </c>
       <c r="H2" t="n">
-        <v>436991.9516855949</v>
+        <v>436991.951685595</v>
       </c>
       <c r="I2" t="n">
+        <v>451572.9734253555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="L2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="M2" t="n">
         <v>451572.9734253557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>451572.973425356</v>
-      </c>
-      <c r="K2" t="n">
-        <v>451572.9734253563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>451572.9734253563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>451572.9734253556</v>
       </c>
       <c r="N2" t="n">
         <v>451572.9734253557</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253558</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552241</v>
+        <v>59764.55367552328</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26381,13 +26381,13 @@
         <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995427</v>
+        <v>421637.9387995424</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362521</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362519</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.43437506734</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506737</v>
+        <v>75832.43437506742</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.1609345131</v>
+        <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173091</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="M4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="O4" t="n">
         <v>90964.01098815714</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26488,10 +26488,10 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
@@ -26503,7 +26503,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24674.8637014495</v>
+        <v>-24679.27727931743</v>
       </c>
       <c r="C6" t="n">
-        <v>-24674.86370144955</v>
+        <v>-24679.27727931743</v>
       </c>
       <c r="D6" t="n">
-        <v>-65937.12951366097</v>
+        <v>-65941.48726380746</v>
       </c>
       <c r="E6" t="n">
-        <v>-803365.7360443481</v>
+        <v>-803594.4904667456</v>
       </c>
       <c r="F6" t="n">
-        <v>285873.2361192842</v>
+        <v>285644.481696886</v>
       </c>
       <c r="G6" t="n">
-        <v>243060.7648904385</v>
+        <v>242994.4875188941</v>
       </c>
       <c r="H6" t="n">
-        <v>280640.8741853125</v>
+        <v>280574.5968137684</v>
       </c>
       <c r="I6" t="n">
-        <v>254969.8163591669</v>
+        <v>254969.8163591667</v>
       </c>
       <c r="J6" t="n">
-        <v>251927.4393270219</v>
+        <v>251927.4393270222</v>
       </c>
       <c r="K6" t="n">
-        <v>277336.8723488192</v>
+        <v>277336.872348819</v>
       </c>
       <c r="L6" t="n">
-        <v>239756.7630539452</v>
+        <v>239756.7630539451</v>
       </c>
       <c r="M6" t="n">
         <v>75922.26513822441</v>
       </c>
       <c r="N6" t="n">
-        <v>278090.3651309487</v>
+        <v>278090.3651309488</v>
       </c>
       <c r="O6" t="n">
         <v>278090.3651309487</v>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
@@ -26716,10 +26716,10 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790598</v>
+        <v>69.78465283790699</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790598</v>
+        <v>69.78465283790699</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.2286184667211</v>
+        <v>84.22861846672102</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987523</v>
+        <v>90.8382912698751</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519089</v>
+        <v>84.46220888519076</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990424</v>
+        <v>7.649035050990213</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317058</v>
+        <v>75.62456067317044</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075554</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075518</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075662</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075577</v>
+        <v>11.49558901075665</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>54.14548214544452</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>55.47778196371188</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.72521440565344</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.47778196371118</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>97.68472022810502</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>46.72521440565299</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810502</v>
@@ -30672,16 +30672,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30858,16 +30858,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>55.4777819637111</v>
       </c>
       <c r="F46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>46.72521440565333</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>97.68472022810502</v>
@@ -30900,13 +30900,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413304</v>
+        <v>0.2805413179413344</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236665</v>
+        <v>2.873093772366692</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993315</v>
+        <v>10.81556915993331</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362301</v>
+        <v>23.81059368362335</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207953</v>
+        <v>35.68590767208005</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102653</v>
+        <v>44.27152403102717</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396566</v>
+        <v>49.26060069396637</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356647</v>
+        <v>50.0576887135672</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328736</v>
+        <v>47.26805598328804</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661076</v>
+        <v>40.34219219661135</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783686</v>
+        <v>30.2953062478373</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313211</v>
+        <v>17.62255356313236</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588072</v>
+        <v>6.392835282588164</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288174</v>
+        <v>1.228069619288192</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530642</v>
+        <v>0.02244330543530675</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796468</v>
+        <v>0.150102838179649</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840273</v>
+        <v>1.449677410840295</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693981</v>
+        <v>5.168014384694056</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906918</v>
+        <v>14.18142647906938</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710552</v>
+        <v>24.23831663710587</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264657</v>
+        <v>32.59140791264704</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665875</v>
+        <v>38.03263579665931</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655648</v>
+        <v>39.03924649655705</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847062</v>
+        <v>35.71328360847114</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449765</v>
+        <v>28.66305863449806</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447562</v>
+        <v>19.1604956244759</v>
       </c>
       <c r="R9" t="n">
-        <v>9.3195428827679</v>
+        <v>9.319542882768035</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608789</v>
+        <v>2.788094384608829</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890149</v>
+        <v>0.6050197731890236</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234519</v>
+        <v>0.009875186722345332</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486829</v>
+        <v>0.1258411772486847</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811018</v>
+        <v>1.118842466811034</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078574</v>
+        <v>3.784387403078629</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481881</v>
+        <v>8.896971231482009</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489243</v>
+        <v>14.62045677489264</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477237</v>
+        <v>18.70915102477264</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908217</v>
+        <v>19.72617653908246</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115528</v>
+        <v>19.25713215115556</v>
       </c>
       <c r="O10" t="n">
-        <v>17.7870783987502</v>
+        <v>17.78707839875046</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287706</v>
+        <v>15.21991838287728</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.5374825785238</v>
+        <v>10.53748257852395</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381686</v>
+        <v>5.658276933381768</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233864</v>
+        <v>2.193068516233896</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625541</v>
+        <v>0.5376850300625619</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356453</v>
+        <v>0.006864064213564629</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33506,10 +33506,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34223,10 +34223,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34448,10 +34448,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35574,7 +35574,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
@@ -35583,7 +35583,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302282</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>795.4045397707671</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086609</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776192</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>761.4205919064721</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>790.0769918075607</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36847,10 +36847,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>527.4262975833883</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>604.4382338939696</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37871,10 +37871,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38096,10 +38096,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
